--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjcts\ExcelMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E815AD-84A6-4F83-B6C6-AF9B54D514D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEE5E9-9844-4B9A-BD32-41D8C6BB4C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{586F6E4B-30F7-4DF0-920B-38EC9BAB1EF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{586F6E4B-30F7-4DF0-920B-38EC9BAB1EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>test1</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>test4</t>
+  </si>
+  <si>
+    <t>2.444</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2,69</t>
   </si>
 </sst>
 </file>
@@ -85,8 +97,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBC340-5D35-4A52-9E4F-B8FC416F1005}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +424,7 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,49 +437,57 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>37289</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.5</v>
+      <c r="D2" s="3">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>37290</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.5</v>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="1">
         <f>C2+2</f>
         <v>37291</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjcts\ExcelMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEE5E9-9844-4B9A-BD32-41D8C6BB4C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202B2E06-0551-45BA-B9E6-06CC221FF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{586F6E4B-30F7-4DF0-920B-38EC9BAB1EF9}"/>
+    <workbookView minimized="1" xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{586F6E4B-30F7-4DF0-920B-38EC9BAB1EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>test1</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>2,69</t>
+  </si>
+  <si>
+    <t>tes6</t>
+  </si>
+  <si>
+    <t>ИНН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +79,44 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,15 +124,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -413,18 +484,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBC340-5D35-4A52-9E4F-B8FC416F1005}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +513,14 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -457,8 +536,14 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F2">
+        <v>1.3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>7728029110</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -474,8 +559,11 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>234</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -488,6 +576,9 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="4">
+        <v>12816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
